--- a/po_analysis_by_asin/B0BZQ416QM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ416QM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,305 +452,537 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>420</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45411</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45425</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45432</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45446</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45453</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45460</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45467</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45481</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45488</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45495</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45502</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45509</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45516</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45523</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45530</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45537</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>60</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45544</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45551</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45558</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45565</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45572</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45579</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45586</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45593</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B39" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B68" t="n">
         <v>440</v>
       </c>
     </row>
@@ -765,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,81 +1019,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>870</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>960</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>740</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZQ416QM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ416QM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1014,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1167,6 +1168,1097 @@
       </c>
       <c r="B20" t="n">
         <v>740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-46.43791321538216</v>
+      </c>
+      <c r="D2" t="n">
+        <v>186.8032931752883</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>72</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-47.19432322034194</v>
+      </c>
+      <c r="D3" t="n">
+        <v>184.7629172564357</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>74</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-45.18094535741655</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.2916433627699</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-44.26463968047852</v>
+      </c>
+      <c r="D5" t="n">
+        <v>182.4382338150261</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-41.87553885725413</v>
+      </c>
+      <c r="D6" t="n">
+        <v>191.9873557892802</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>76</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-40.92291525188291</v>
+      </c>
+      <c r="D7" t="n">
+        <v>187.4590960783607</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>77</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-43.11978877853108</v>
+      </c>
+      <c r="D8" t="n">
+        <v>190.3623839241408</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-45.99512965469623</v>
+      </c>
+      <c r="D9" t="n">
+        <v>200.9562215662505</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-38.64280075469556</v>
+      </c>
+      <c r="D10" t="n">
+        <v>199.7358625888254</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>79</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-34.45153360992744</v>
+      </c>
+      <c r="D11" t="n">
+        <v>205.6698225259995</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>79</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-36.73761727714172</v>
+      </c>
+      <c r="D12" t="n">
+        <v>198.8136424741582</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>82</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-28.36248678109474</v>
+      </c>
+      <c r="D13" t="n">
+        <v>205.5667284349158</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-30.24139107174077</v>
+      </c>
+      <c r="D14" t="n">
+        <v>195.1890778648966</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>83</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-36.42454421428962</v>
+      </c>
+      <c r="D15" t="n">
+        <v>191.2273434570222</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>84</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-41.08846846078413</v>
+      </c>
+      <c r="D16" t="n">
+        <v>208.7614765301728</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>86</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-27.12231961905076</v>
+      </c>
+      <c r="D17" t="n">
+        <v>213.0471396506499</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>87</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-32.53742900003123</v>
+      </c>
+      <c r="D18" t="n">
+        <v>203.7267929257157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>88</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-31.64938357536544</v>
+      </c>
+      <c r="D19" t="n">
+        <v>207.1028919607417</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>89</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-31.08146642435455</v>
+      </c>
+      <c r="D20" t="n">
+        <v>208.6292971286488</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-25.76848197306997</v>
+      </c>
+      <c r="D21" t="n">
+        <v>196.872086750384</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-29.41677815663937</v>
+      </c>
+      <c r="D22" t="n">
+        <v>202.7856818146017</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>91</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-18.61903283570707</v>
+      </c>
+      <c r="D23" t="n">
+        <v>213.0233174090731</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>92</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-30.01725326337007</v>
+      </c>
+      <c r="D24" t="n">
+        <v>202.3371353393307</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>92</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-29.27895052433436</v>
+      </c>
+      <c r="D25" t="n">
+        <v>207.8234325502558</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>93</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-31.56327086850019</v>
+      </c>
+      <c r="D26" t="n">
+        <v>203.5413033636013</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>94</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-32.46626827078989</v>
+      </c>
+      <c r="D27" t="n">
+        <v>219.1497099518948</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>95</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-23.99141889774057</v>
+      </c>
+      <c r="D28" t="n">
+        <v>206.5554522100581</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>95</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-23.356078549056</v>
+      </c>
+      <c r="D29" t="n">
+        <v>205.5351016526261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>96</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-16.23737407454237</v>
+      </c>
+      <c r="D30" t="n">
+        <v>216.328801642275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>98</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-16.63977432641435</v>
+      </c>
+      <c r="D31" t="n">
+        <v>215.6531347761043</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>99</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-19.97386671504709</v>
+      </c>
+      <c r="D32" t="n">
+        <v>216.2168644001829</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>100</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-18.86470009481863</v>
+      </c>
+      <c r="D33" t="n">
+        <v>226.8202506573602</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>101</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-21.82221912119683</v>
+      </c>
+      <c r="D34" t="n">
+        <v>219.2193967218491</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>102</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-24.92237487398979</v>
+      </c>
+      <c r="D35" t="n">
+        <v>229.5831000877806</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>102</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-14.92683461241772</v>
+      </c>
+      <c r="D36" t="n">
+        <v>221.9750159103768</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>103</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-18.96633905074599</v>
+      </c>
+      <c r="D37" t="n">
+        <v>225.0967669778581</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>104</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-12.13724036983847</v>
+      </c>
+      <c r="D38" t="n">
+        <v>222.0613202074793</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>105</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-2.391470068120325</v>
+      </c>
+      <c r="D39" t="n">
+        <v>228.8035896459875</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>105</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-11.94774539483964</v>
+      </c>
+      <c r="D40" t="n">
+        <v>225.3274109944802</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>106</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-7.242018474119892</v>
+      </c>
+      <c r="D41" t="n">
+        <v>222.5298076767683</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>110</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.568034056170704</v>
+      </c>
+      <c r="D42" t="n">
+        <v>228.7454947322329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>110</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-14.2421104506997</v>
+      </c>
+      <c r="D43" t="n">
+        <v>218.286471791439</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>111</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.695307209440986</v>
+      </c>
+      <c r="D44" t="n">
+        <v>229.2473127085645</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>112</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-9.843584077693178</v>
+      </c>
+      <c r="D45" t="n">
+        <v>227.6438982320449</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>113</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-4.644662758345472</v>
+      </c>
+      <c r="D46" t="n">
+        <v>232.8107967009599</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>113</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.70268203555344</v>
+      </c>
+      <c r="D47" t="n">
+        <v>235.2945528143014</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>114</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-8.83894254665609</v>
+      </c>
+      <c r="D48" t="n">
+        <v>234.9429859684456</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>115</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-10.97545945619778</v>
+      </c>
+      <c r="D49" t="n">
+        <v>231.8052456055555</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>115</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2.212963324059636</v>
+      </c>
+      <c r="D50" t="n">
+        <v>243.3435702694045</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>116</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5.008082556072408</v>
+      </c>
+      <c r="D51" t="n">
+        <v>240.0596364721668</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>118</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.2367515049734939</v>
+      </c>
+      <c r="D52" t="n">
+        <v>238.4273431557592</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>118</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.888763509371894</v>
+      </c>
+      <c r="D53" t="n">
+        <v>231.9163434677177</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>119</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-2.886125558217324</v>
+      </c>
+      <c r="D54" t="n">
+        <v>238.9836546447158</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>120</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.883105621071559</v>
+      </c>
+      <c r="D55" t="n">
+        <v>239.3979266363435</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>120</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.169299296541038</v>
+      </c>
+      <c r="D56" t="n">
+        <v>226.7348062477021</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>121</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.4479898473424</v>
+      </c>
+      <c r="D57" t="n">
+        <v>236.8831724823323</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>122</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.477792511179454</v>
+      </c>
+      <c r="D58" t="n">
+        <v>239.9837712332994</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>123</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2.043728295716493</v>
+      </c>
+      <c r="D59" t="n">
+        <v>240.3482646876423</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>123</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.7795899515261014</v>
+      </c>
+      <c r="D60" t="n">
+        <v>235.3351495830478</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>11.13971186748944</v>
+      </c>
+      <c r="D61" t="n">
+        <v>245.4952201491618</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.449100630257553</v>
+      </c>
+      <c r="D62" t="n">
+        <v>245.1091163468658</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>125</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.415670041365813</v>
+      </c>
+      <c r="D63" t="n">
+        <v>245.4078817415528</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>126</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9.459672637105973</v>
+      </c>
+      <c r="D64" t="n">
+        <v>235.6895528487907</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>127</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.556720918510896</v>
+      </c>
+      <c r="D65" t="n">
+        <v>243.8776146193245</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>128</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11.65126979727568</v>
+      </c>
+      <c r="D66" t="n">
+        <v>249.4428097737632</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>128</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.00076787072145</v>
+      </c>
+      <c r="D67" t="n">
+        <v>247.0902712030619</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>129</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11.95488037289663</v>
+      </c>
+      <c r="D68" t="n">
+        <v>244.7349428280064</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>130</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10.79645445491337</v>
+      </c>
+      <c r="D69" t="n">
+        <v>242.0534689861364</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>130</v>
+      </c>
+      <c r="C70" t="n">
+        <v>14.85274075996888</v>
+      </c>
+      <c r="D70" t="n">
+        <v>255.5552021949096</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>131</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.31786827367443</v>
+      </c>
+      <c r="D71" t="n">
+        <v>261.6445592451306</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>132</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10.64822146721889</v>
+      </c>
+      <c r="D72" t="n">
+        <v>249.4224976383075</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>133</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12.89664575967423</v>
+      </c>
+      <c r="D73" t="n">
+        <v>245.7573703852792</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>133</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15.73385593680439</v>
+      </c>
+      <c r="D74" t="n">
+        <v>251.9560015880014</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>134</v>
+      </c>
+      <c r="C75" t="n">
+        <v>11.64715059569003</v>
+      </c>
+      <c r="D75" t="n">
+        <v>246.2752357065125</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>135</v>
+      </c>
+      <c r="C76" t="n">
+        <v>23.25475700524526</v>
+      </c>
+      <c r="D76" t="n">
+        <v>259.2296458517608</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZQ416QM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ416QM_po_data.xlsx
@@ -1181,7 +1181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,16 +1200,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1218,12 +1208,6 @@
       <c r="B2" t="n">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
-        <v>-46.43791321538216</v>
-      </c>
-      <c r="D2" t="n">
-        <v>186.8032931752883</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1232,12 +1216,6 @@
       <c r="B3" t="n">
         <v>72</v>
       </c>
-      <c r="C3" t="n">
-        <v>-47.19432322034194</v>
-      </c>
-      <c r="D3" t="n">
-        <v>184.7629172564357</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1246,12 +1224,6 @@
       <c r="B4" t="n">
         <v>74</v>
       </c>
-      <c r="C4" t="n">
-        <v>-45.18094535741655</v>
-      </c>
-      <c r="D4" t="n">
-        <v>191.2916433627699</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1260,12 +1232,6 @@
       <c r="B5" t="n">
         <v>74</v>
       </c>
-      <c r="C5" t="n">
-        <v>-44.26463968047852</v>
-      </c>
-      <c r="D5" t="n">
-        <v>182.4382338150261</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1274,12 +1240,6 @@
       <c r="B6" t="n">
         <v>75</v>
       </c>
-      <c r="C6" t="n">
-        <v>-41.87553885725413</v>
-      </c>
-      <c r="D6" t="n">
-        <v>191.9873557892802</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1288,12 +1248,6 @@
       <c r="B7" t="n">
         <v>76</v>
       </c>
-      <c r="C7" t="n">
-        <v>-40.92291525188291</v>
-      </c>
-      <c r="D7" t="n">
-        <v>187.4590960783607</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1302,12 +1256,6 @@
       <c r="B8" t="n">
         <v>77</v>
       </c>
-      <c r="C8" t="n">
-        <v>-43.11978877853108</v>
-      </c>
-      <c r="D8" t="n">
-        <v>190.3623839241408</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1316,12 +1264,6 @@
       <c r="B9" t="n">
         <v>77</v>
       </c>
-      <c r="C9" t="n">
-        <v>-45.99512965469623</v>
-      </c>
-      <c r="D9" t="n">
-        <v>200.9562215662505</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1330,12 +1272,6 @@
       <c r="B10" t="n">
         <v>78</v>
       </c>
-      <c r="C10" t="n">
-        <v>-38.64280075469556</v>
-      </c>
-      <c r="D10" t="n">
-        <v>199.7358625888254</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1344,12 +1280,6 @@
       <c r="B11" t="n">
         <v>79</v>
       </c>
-      <c r="C11" t="n">
-        <v>-34.45153360992744</v>
-      </c>
-      <c r="D11" t="n">
-        <v>205.6698225259995</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1358,12 +1288,6 @@
       <c r="B12" t="n">
         <v>79</v>
       </c>
-      <c r="C12" t="n">
-        <v>-36.73761727714172</v>
-      </c>
-      <c r="D12" t="n">
-        <v>198.8136424741582</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1372,12 +1296,6 @@
       <c r="B13" t="n">
         <v>82</v>
       </c>
-      <c r="C13" t="n">
-        <v>-28.36248678109474</v>
-      </c>
-      <c r="D13" t="n">
-        <v>205.5667284349158</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1386,12 +1304,6 @@
       <c r="B14" t="n">
         <v>82</v>
       </c>
-      <c r="C14" t="n">
-        <v>-30.24139107174077</v>
-      </c>
-      <c r="D14" t="n">
-        <v>195.1890778648966</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1400,12 +1312,6 @@
       <c r="B15" t="n">
         <v>83</v>
       </c>
-      <c r="C15" t="n">
-        <v>-36.42454421428962</v>
-      </c>
-      <c r="D15" t="n">
-        <v>191.2273434570222</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1414,12 +1320,6 @@
       <c r="B16" t="n">
         <v>84</v>
       </c>
-      <c r="C16" t="n">
-        <v>-41.08846846078413</v>
-      </c>
-      <c r="D16" t="n">
-        <v>208.7614765301728</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1428,12 +1328,6 @@
       <c r="B17" t="n">
         <v>86</v>
       </c>
-      <c r="C17" t="n">
-        <v>-27.12231961905076</v>
-      </c>
-      <c r="D17" t="n">
-        <v>213.0471396506499</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1442,12 +1336,6 @@
       <c r="B18" t="n">
         <v>87</v>
       </c>
-      <c r="C18" t="n">
-        <v>-32.53742900003123</v>
-      </c>
-      <c r="D18" t="n">
-        <v>203.7267929257157</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1456,12 +1344,6 @@
       <c r="B19" t="n">
         <v>88</v>
       </c>
-      <c r="C19" t="n">
-        <v>-31.64938357536544</v>
-      </c>
-      <c r="D19" t="n">
-        <v>207.1028919607417</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1470,12 +1352,6 @@
       <c r="B20" t="n">
         <v>89</v>
       </c>
-      <c r="C20" t="n">
-        <v>-31.08146642435455</v>
-      </c>
-      <c r="D20" t="n">
-        <v>208.6292971286488</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1484,12 +1360,6 @@
       <c r="B21" t="n">
         <v>90</v>
       </c>
-      <c r="C21" t="n">
-        <v>-25.76848197306997</v>
-      </c>
-      <c r="D21" t="n">
-        <v>196.872086750384</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1498,12 +1368,6 @@
       <c r="B22" t="n">
         <v>90</v>
       </c>
-      <c r="C22" t="n">
-        <v>-29.41677815663937</v>
-      </c>
-      <c r="D22" t="n">
-        <v>202.7856818146017</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1512,12 +1376,6 @@
       <c r="B23" t="n">
         <v>91</v>
       </c>
-      <c r="C23" t="n">
-        <v>-18.61903283570707</v>
-      </c>
-      <c r="D23" t="n">
-        <v>213.0233174090731</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1526,12 +1384,6 @@
       <c r="B24" t="n">
         <v>92</v>
       </c>
-      <c r="C24" t="n">
-        <v>-30.01725326337007</v>
-      </c>
-      <c r="D24" t="n">
-        <v>202.3371353393307</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1540,12 +1392,6 @@
       <c r="B25" t="n">
         <v>92</v>
       </c>
-      <c r="C25" t="n">
-        <v>-29.27895052433436</v>
-      </c>
-      <c r="D25" t="n">
-        <v>207.8234325502558</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1554,12 +1400,6 @@
       <c r="B26" t="n">
         <v>93</v>
       </c>
-      <c r="C26" t="n">
-        <v>-31.56327086850019</v>
-      </c>
-      <c r="D26" t="n">
-        <v>203.5413033636013</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1568,12 +1408,6 @@
       <c r="B27" t="n">
         <v>94</v>
       </c>
-      <c r="C27" t="n">
-        <v>-32.46626827078989</v>
-      </c>
-      <c r="D27" t="n">
-        <v>219.1497099518948</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1582,12 +1416,6 @@
       <c r="B28" t="n">
         <v>95</v>
       </c>
-      <c r="C28" t="n">
-        <v>-23.99141889774057</v>
-      </c>
-      <c r="D28" t="n">
-        <v>206.5554522100581</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1596,12 +1424,6 @@
       <c r="B29" t="n">
         <v>95</v>
       </c>
-      <c r="C29" t="n">
-        <v>-23.356078549056</v>
-      </c>
-      <c r="D29" t="n">
-        <v>205.5351016526261</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1610,12 +1432,6 @@
       <c r="B30" t="n">
         <v>96</v>
       </c>
-      <c r="C30" t="n">
-        <v>-16.23737407454237</v>
-      </c>
-      <c r="D30" t="n">
-        <v>216.328801642275</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1624,12 +1440,6 @@
       <c r="B31" t="n">
         <v>98</v>
       </c>
-      <c r="C31" t="n">
-        <v>-16.63977432641435</v>
-      </c>
-      <c r="D31" t="n">
-        <v>215.6531347761043</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1638,12 +1448,6 @@
       <c r="B32" t="n">
         <v>99</v>
       </c>
-      <c r="C32" t="n">
-        <v>-19.97386671504709</v>
-      </c>
-      <c r="D32" t="n">
-        <v>216.2168644001829</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1652,12 +1456,6 @@
       <c r="B33" t="n">
         <v>100</v>
       </c>
-      <c r="C33" t="n">
-        <v>-18.86470009481863</v>
-      </c>
-      <c r="D33" t="n">
-        <v>226.8202506573602</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1666,12 +1464,6 @@
       <c r="B34" t="n">
         <v>101</v>
       </c>
-      <c r="C34" t="n">
-        <v>-21.82221912119683</v>
-      </c>
-      <c r="D34" t="n">
-        <v>219.2193967218491</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1680,12 +1472,6 @@
       <c r="B35" t="n">
         <v>102</v>
       </c>
-      <c r="C35" t="n">
-        <v>-24.92237487398979</v>
-      </c>
-      <c r="D35" t="n">
-        <v>229.5831000877806</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1694,12 +1480,6 @@
       <c r="B36" t="n">
         <v>102</v>
       </c>
-      <c r="C36" t="n">
-        <v>-14.92683461241772</v>
-      </c>
-      <c r="D36" t="n">
-        <v>221.9750159103768</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1708,12 +1488,6 @@
       <c r="B37" t="n">
         <v>103</v>
       </c>
-      <c r="C37" t="n">
-        <v>-18.96633905074599</v>
-      </c>
-      <c r="D37" t="n">
-        <v>225.0967669778581</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1722,12 +1496,6 @@
       <c r="B38" t="n">
         <v>104</v>
       </c>
-      <c r="C38" t="n">
-        <v>-12.13724036983847</v>
-      </c>
-      <c r="D38" t="n">
-        <v>222.0613202074793</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1736,12 +1504,6 @@
       <c r="B39" t="n">
         <v>105</v>
       </c>
-      <c r="C39" t="n">
-        <v>-2.391470068120325</v>
-      </c>
-      <c r="D39" t="n">
-        <v>228.8035896459875</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1750,12 +1512,6 @@
       <c r="B40" t="n">
         <v>105</v>
       </c>
-      <c r="C40" t="n">
-        <v>-11.94774539483964</v>
-      </c>
-      <c r="D40" t="n">
-        <v>225.3274109944802</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1764,12 +1520,6 @@
       <c r="B41" t="n">
         <v>106</v>
       </c>
-      <c r="C41" t="n">
-        <v>-7.242018474119892</v>
-      </c>
-      <c r="D41" t="n">
-        <v>222.5298076767683</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1778,12 +1528,6 @@
       <c r="B42" t="n">
         <v>110</v>
       </c>
-      <c r="C42" t="n">
-        <v>1.568034056170704</v>
-      </c>
-      <c r="D42" t="n">
-        <v>228.7454947322329</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1792,12 +1536,6 @@
       <c r="B43" t="n">
         <v>110</v>
       </c>
-      <c r="C43" t="n">
-        <v>-14.2421104506997</v>
-      </c>
-      <c r="D43" t="n">
-        <v>218.286471791439</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1806,12 +1544,6 @@
       <c r="B44" t="n">
         <v>111</v>
       </c>
-      <c r="C44" t="n">
-        <v>-1.695307209440986</v>
-      </c>
-      <c r="D44" t="n">
-        <v>229.2473127085645</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1820,12 +1552,6 @@
       <c r="B45" t="n">
         <v>112</v>
       </c>
-      <c r="C45" t="n">
-        <v>-9.843584077693178</v>
-      </c>
-      <c r="D45" t="n">
-        <v>227.6438982320449</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1834,12 +1560,6 @@
       <c r="B46" t="n">
         <v>113</v>
       </c>
-      <c r="C46" t="n">
-        <v>-4.644662758345472</v>
-      </c>
-      <c r="D46" t="n">
-        <v>232.8107967009599</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1848,12 +1568,6 @@
       <c r="B47" t="n">
         <v>113</v>
       </c>
-      <c r="C47" t="n">
-        <v>-2.70268203555344</v>
-      </c>
-      <c r="D47" t="n">
-        <v>235.2945528143014</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1862,12 +1576,6 @@
       <c r="B48" t="n">
         <v>114</v>
       </c>
-      <c r="C48" t="n">
-        <v>-8.83894254665609</v>
-      </c>
-      <c r="D48" t="n">
-        <v>234.9429859684456</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1876,12 +1584,6 @@
       <c r="B49" t="n">
         <v>115</v>
       </c>
-      <c r="C49" t="n">
-        <v>-10.97545945619778</v>
-      </c>
-      <c r="D49" t="n">
-        <v>231.8052456055555</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1890,12 +1592,6 @@
       <c r="B50" t="n">
         <v>115</v>
       </c>
-      <c r="C50" t="n">
-        <v>-2.212963324059636</v>
-      </c>
-      <c r="D50" t="n">
-        <v>243.3435702694045</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1904,12 +1600,6 @@
       <c r="B51" t="n">
         <v>116</v>
       </c>
-      <c r="C51" t="n">
-        <v>5.008082556072408</v>
-      </c>
-      <c r="D51" t="n">
-        <v>240.0596364721668</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1918,12 +1608,6 @@
       <c r="B52" t="n">
         <v>118</v>
       </c>
-      <c r="C52" t="n">
-        <v>-0.2367515049734939</v>
-      </c>
-      <c r="D52" t="n">
-        <v>238.4273431557592</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1932,12 +1616,6 @@
       <c r="B53" t="n">
         <v>118</v>
       </c>
-      <c r="C53" t="n">
-        <v>2.888763509371894</v>
-      </c>
-      <c r="D53" t="n">
-        <v>231.9163434677177</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1946,12 +1624,6 @@
       <c r="B54" t="n">
         <v>119</v>
       </c>
-      <c r="C54" t="n">
-        <v>-2.886125558217324</v>
-      </c>
-      <c r="D54" t="n">
-        <v>238.9836546447158</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1960,12 +1632,6 @@
       <c r="B55" t="n">
         <v>120</v>
       </c>
-      <c r="C55" t="n">
-        <v>4.883105621071559</v>
-      </c>
-      <c r="D55" t="n">
-        <v>239.3979266363435</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1974,12 +1640,6 @@
       <c r="B56" t="n">
         <v>120</v>
       </c>
-      <c r="C56" t="n">
-        <v>5.169299296541038</v>
-      </c>
-      <c r="D56" t="n">
-        <v>226.7348062477021</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1988,12 +1648,6 @@
       <c r="B57" t="n">
         <v>121</v>
       </c>
-      <c r="C57" t="n">
-        <v>3.4479898473424</v>
-      </c>
-      <c r="D57" t="n">
-        <v>236.8831724823323</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2002,12 +1656,6 @@
       <c r="B58" t="n">
         <v>122</v>
       </c>
-      <c r="C58" t="n">
-        <v>6.477792511179454</v>
-      </c>
-      <c r="D58" t="n">
-        <v>239.9837712332994</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2016,12 +1664,6 @@
       <c r="B59" t="n">
         <v>123</v>
       </c>
-      <c r="C59" t="n">
-        <v>-2.043728295716493</v>
-      </c>
-      <c r="D59" t="n">
-        <v>240.3482646876423</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2030,12 +1672,6 @@
       <c r="B60" t="n">
         <v>123</v>
       </c>
-      <c r="C60" t="n">
-        <v>-0.7795899515261014</v>
-      </c>
-      <c r="D60" t="n">
-        <v>235.3351495830478</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2044,12 +1680,6 @@
       <c r="B61" t="n">
         <v>124</v>
       </c>
-      <c r="C61" t="n">
-        <v>11.13971186748944</v>
-      </c>
-      <c r="D61" t="n">
-        <v>245.4952201491618</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2058,12 +1688,6 @@
       <c r="B62" t="n">
         <v>125</v>
       </c>
-      <c r="C62" t="n">
-        <v>4.449100630257553</v>
-      </c>
-      <c r="D62" t="n">
-        <v>245.1091163468658</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2072,12 +1696,6 @@
       <c r="B63" t="n">
         <v>125</v>
       </c>
-      <c r="C63" t="n">
-        <v>6.415670041365813</v>
-      </c>
-      <c r="D63" t="n">
-        <v>245.4078817415528</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2086,12 +1704,6 @@
       <c r="B64" t="n">
         <v>126</v>
       </c>
-      <c r="C64" t="n">
-        <v>9.459672637105973</v>
-      </c>
-      <c r="D64" t="n">
-        <v>235.6895528487907</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2100,12 +1712,6 @@
       <c r="B65" t="n">
         <v>127</v>
       </c>
-      <c r="C65" t="n">
-        <v>1.556720918510896</v>
-      </c>
-      <c r="D65" t="n">
-        <v>243.8776146193245</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2114,12 +1720,6 @@
       <c r="B66" t="n">
         <v>128</v>
       </c>
-      <c r="C66" t="n">
-        <v>11.65126979727568</v>
-      </c>
-      <c r="D66" t="n">
-        <v>249.4428097737632</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2128,12 +1728,6 @@
       <c r="B67" t="n">
         <v>128</v>
       </c>
-      <c r="C67" t="n">
-        <v>12.00076787072145</v>
-      </c>
-      <c r="D67" t="n">
-        <v>247.0902712030619</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2142,12 +1736,6 @@
       <c r="B68" t="n">
         <v>129</v>
       </c>
-      <c r="C68" t="n">
-        <v>11.95488037289663</v>
-      </c>
-      <c r="D68" t="n">
-        <v>244.7349428280064</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2156,12 +1744,6 @@
       <c r="B69" t="n">
         <v>130</v>
       </c>
-      <c r="C69" t="n">
-        <v>10.79645445491337</v>
-      </c>
-      <c r="D69" t="n">
-        <v>242.0534689861364</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2170,12 +1752,6 @@
       <c r="B70" t="n">
         <v>130</v>
       </c>
-      <c r="C70" t="n">
-        <v>14.85274075996888</v>
-      </c>
-      <c r="D70" t="n">
-        <v>255.5552021949096</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2184,12 +1760,6 @@
       <c r="B71" t="n">
         <v>131</v>
       </c>
-      <c r="C71" t="n">
-        <v>5.31786827367443</v>
-      </c>
-      <c r="D71" t="n">
-        <v>261.6445592451306</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2198,12 +1768,6 @@
       <c r="B72" t="n">
         <v>132</v>
       </c>
-      <c r="C72" t="n">
-        <v>10.64822146721889</v>
-      </c>
-      <c r="D72" t="n">
-        <v>249.4224976383075</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2212,12 +1776,6 @@
       <c r="B73" t="n">
         <v>133</v>
       </c>
-      <c r="C73" t="n">
-        <v>12.89664575967423</v>
-      </c>
-      <c r="D73" t="n">
-        <v>245.7573703852792</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2226,12 +1784,6 @@
       <c r="B74" t="n">
         <v>133</v>
       </c>
-      <c r="C74" t="n">
-        <v>15.73385593680439</v>
-      </c>
-      <c r="D74" t="n">
-        <v>251.9560015880014</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2240,12 +1792,6 @@
       <c r="B75" t="n">
         <v>134</v>
       </c>
-      <c r="C75" t="n">
-        <v>11.64715059569003</v>
-      </c>
-      <c r="D75" t="n">
-        <v>246.2752357065125</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2253,12 +1799,6 @@
       </c>
       <c r="B76" t="n">
         <v>135</v>
-      </c>
-      <c r="C76" t="n">
-        <v>23.25475700524526</v>
-      </c>
-      <c r="D76" t="n">
-        <v>259.2296458517608</v>
       </c>
     </row>
   </sheetData>
